--- a/NFL Excel Sheets/Defense_TOUCHDOWNS.xlsx
+++ b/NFL Excel Sheets/Defense_TOUCHDOWNS.xlsx
@@ -62559,17 +62559,17 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
@@ -62579,7 +62579,7 @@
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I1447" t="n">
@@ -62592,17 +62592,17 @@
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr">
@@ -62612,12 +62612,12 @@
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
@@ -62635,37 +62635,37 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I1449" t="n">
@@ -62678,7 +62678,7 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
@@ -62688,17 +62688,17 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G1450" t="inlineStr">
@@ -62708,7 +62708,7 @@
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I1450" t="n">
@@ -62726,22 +62726,22 @@
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G1451" t="inlineStr">
@@ -62751,7 +62751,7 @@
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1451" t="n">
@@ -62769,22 +62769,22 @@
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>Oakland Raiders</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F1452" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G1452" t="inlineStr">
@@ -62794,7 +62794,7 @@
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I1452" t="n">
@@ -62812,32 +62812,32 @@
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Oakland Raiders</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I1453" t="n">
@@ -62855,12 +62855,12 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E1454" t="inlineStr">
@@ -62870,7 +62870,7 @@
       </c>
       <c r="F1454" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G1454" t="inlineStr">
@@ -62880,7 +62880,7 @@
       </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1454" t="n">
@@ -62898,22 +62898,22 @@
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G1455" t="inlineStr">
@@ -62936,27 +62936,27 @@
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Washington Redskins</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G1456" t="inlineStr">
@@ -62966,7 +62966,7 @@
       </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1456" t="n">
@@ -62979,27 +62979,27 @@
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G1457" t="inlineStr">
@@ -63009,7 +63009,7 @@
       </c>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1457" t="n">
@@ -63022,27 +63022,27 @@
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Washington Redskins</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G1458" t="inlineStr">
@@ -63065,37 +63065,37 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I1459" t="n">
@@ -63108,27 +63108,27 @@
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G1460" t="inlineStr">
@@ -63138,7 +63138,7 @@
       </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I1460" t="n">
@@ -63156,22 +63156,22 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G1461" t="inlineStr">
@@ -63181,7 +63181,7 @@
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1461" t="n">
@@ -63199,32 +63199,32 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I1462" t="n">
@@ -63242,22 +63242,22 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G1463" t="inlineStr">
@@ -63267,7 +63267,7 @@
       </c>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1463" t="n">
@@ -63285,22 +63285,22 @@
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G1464" t="inlineStr">
@@ -63310,7 +63310,7 @@
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1464" t="n">
@@ -63328,12 +63328,12 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E1465" t="inlineStr">
@@ -63343,7 +63343,7 @@
       </c>
       <c r="F1465" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G1465" t="inlineStr">
@@ -63353,7 +63353,7 @@
       </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1465" t="n">
@@ -63371,17 +63371,17 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr">
@@ -63396,7 +63396,7 @@
       </c>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I1466" t="n">
@@ -63414,22 +63414,22 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G1467" t="inlineStr">
@@ -63452,27 +63452,27 @@
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G1468" t="inlineStr">
@@ -63482,7 +63482,7 @@
       </c>
       <c r="H1468" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1468" t="n">
@@ -63495,27 +63495,27 @@
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E1469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr">
+        <is>
           <t>19</t>
-        </is>
-      </c>
-      <c r="E1469" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
       <c r="G1469" t="inlineStr">
@@ -63538,27 +63538,27 @@
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G1470" t="inlineStr">
@@ -63581,32 +63581,32 @@
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -63629,32 +63629,32 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E1472" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1472" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H1472" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="I1472" t="n">
@@ -63667,27 +63667,27 @@
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G1473" t="inlineStr">
@@ -63697,7 +63697,7 @@
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I1473" t="n">
@@ -63710,32 +63710,32 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -63758,32 +63758,32 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I1475" t="n">
@@ -63796,17 +63796,17 @@
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E1476" t="inlineStr">
@@ -63816,17 +63816,17 @@
       </c>
       <c r="F1476" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1476" t="n">
@@ -63844,12 +63844,12 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr">
@@ -63859,7 +63859,7 @@
       </c>
       <c r="F1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G1477" t="inlineStr">
@@ -63869,7 +63869,7 @@
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1477" t="n">
@@ -63887,22 +63887,22 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G1478" t="inlineStr">
@@ -63912,7 +63912,7 @@
       </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I1478" t="n">
